--- a/clcore/output/CodeSystem-CodPais.xlsx
+++ b/clcore/output/CodeSystem-CodPais.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/clcore/output/CodeSystem-CodPais.xlsx
+++ b/clcore/output/CodeSystem-CodPais.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.5</t>
+    <t>1.8.6</t>
   </si>
   <si>
     <t>Name</t>
